--- a/Data/FAB-ANSP.xlsx
+++ b/Data/FAB-ANSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20633" windowHeight="9768"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20633" windowHeight="8038"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
   <si>
     <t>Baltic FAB</t>
   </si>
@@ -180,6 +180,234 @@
   </si>
   <si>
     <t>MOLDATSA</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Switserland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>LJ</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Republic of North Macedonia</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>UD</t>
   </si>
 </sst>
 </file>
@@ -506,334 +734,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
